--- a/Schedulator/Programs.xlsx
+++ b/Schedulator/Programs.xlsx
@@ -14,6 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_SECOND_FORMAT" hidden="1">" "</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,9 +33,6 @@
     <t>Year 1</t>
   </si>
   <si>
-    <t>Year 1 – Fall</t>
-  </si>
-  <si>
     <t>Course Number</t>
   </si>
   <si>
@@ -68,9 +69,6 @@
     <t>General Elective</t>
   </si>
   <si>
-    <t>Year 1 – Winter</t>
-  </si>
-  <si>
     <t>COMP 249</t>
   </si>
   <si>
@@ -101,9 +99,6 @@
     <t>Year 2</t>
   </si>
   <si>
-    <t>Year 2 – Fall</t>
-  </si>
-  <si>
     <t>COMP 348</t>
   </si>
   <si>
@@ -128,9 +123,6 @@
     <t>Sustainable Development and Environmental Stewardship</t>
   </si>
   <si>
-    <t>Year 2 – Winter</t>
-  </si>
-  <si>
     <t>COMP 346</t>
   </si>
   <si>
@@ -164,9 +156,6 @@
     <t>Year 3</t>
   </si>
   <si>
-    <t>Year 3 – Fall</t>
-  </si>
-  <si>
     <t>COMP 335</t>
   </si>
   <si>
@@ -197,9 +186,6 @@
     <t>Numerical Methods in Engineering</t>
   </si>
   <si>
-    <t>Year 3 – Winter</t>
-  </si>
-  <si>
     <t>SOEN 344</t>
   </si>
   <si>
@@ -233,9 +219,6 @@
     <t>Year 4</t>
   </si>
   <si>
-    <t>Year 4 – Fall</t>
-  </si>
-  <si>
     <t>SOEN 490</t>
   </si>
   <si>
@@ -287,9 +270,6 @@
     <t>Artificial Intelligence</t>
   </si>
   <si>
-    <t>Year 4 – Winter</t>
-  </si>
-  <si>
     <t>SOEN 385</t>
   </si>
   <si>
@@ -302,16 +282,40 @@
     <t>Impact of Technology on Society</t>
   </si>
   <si>
+    <t>Advanced Game Development</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>Computer Games</t>
+  </si>
+  <si>
+    <t>Year 1 Fall</t>
+  </si>
+  <si>
+    <t>Year 1 Winter</t>
+  </si>
+  <si>
+    <t>Year 2 Fall</t>
+  </si>
+  <si>
+    <t>Year 2 Winter</t>
+  </si>
+  <si>
+    <t>Year 3 Fall</t>
+  </si>
+  <si>
+    <t>Year 3 Winter</t>
+  </si>
+  <si>
+    <t>Year 4 Fall</t>
+  </si>
+  <si>
+    <t>Year 4 Winter</t>
+  </si>
+  <si>
     <t>COMP 476 or</t>
-  </si>
-  <si>
-    <t>Advanced Game Development</t>
-  </si>
-  <si>
-    <t>Software Engineering</t>
-  </si>
-  <si>
-    <t>Computer Games</t>
   </si>
 </sst>
 </file>
@@ -414,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -428,12 +432,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -443,14 +441,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -461,21 +462,40 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -752,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,10 +786,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C1">
         <v>120</v>
@@ -781,29 +801,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -811,10 +831,10 @@
     </row>
     <row r="6" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -822,10 +842,10 @@
     </row>
     <row r="7" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>1.5</v>
@@ -833,10 +853,10 @@
     </row>
     <row r="8" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
@@ -844,40 +864,40 @@
     </row>
     <row r="9" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -885,10 +905,10 @@
     </row>
     <row r="14" spans="1:3" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
@@ -896,10 +916,10 @@
     </row>
     <row r="15" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
@@ -907,10 +927,10 @@
     </row>
     <row r="16" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
@@ -918,147 +938,147 @@
     </row>
     <row r="17" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="C24" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C28" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C30" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C32" s="4">
         <v>3</v>
@@ -1066,155 +1086,155 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="C37" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="B38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C44" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C45" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="C46" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C44" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="C47" s="4">
         <v>3.5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C48" s="3">
         <v>4</v>
@@ -1222,230 +1242,230 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C52" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C53" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C54" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C55" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="B61" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-    </row>
-    <row r="58" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-    </row>
-    <row r="60" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="C61" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
     </row>
     <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-    </row>
-    <row r="64" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C65" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C66" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C67" s="3">
         <v>-4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="16">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-    </row>
-    <row r="70" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-    </row>
-    <row r="72" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="C73" s="4">
         <v>4</v>
@@ -1453,22 +1473,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A63:C63"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="C56:C59"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Schedulator/Programs.xlsx
+++ b/Schedulator/Programs.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SOEN COMP GAMES SEPT" sheetId="1" r:id="rId1"/>
+    <sheet name="SOEN COMP GAMES JAN" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
   <si>
     <t>Year 1</t>
   </si>
@@ -316,6 +317,9 @@
   </si>
   <si>
     <t>COMP 476 or</t>
+  </si>
+  <si>
+    <t>Septemeber</t>
   </si>
 </sst>
 </file>
@@ -447,12 +451,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -461,6 +459,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,30 +788,33 @@
     <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>86</v>
       </c>
-      <c r="C1">
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -818,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -829,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -840,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -851,7 +858,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -862,26 +869,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -892,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -903,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -914,7 +921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -925,7 +932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -949,11 +956,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -1018,16 +1025,16 @@
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -1090,11 +1097,11 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
@@ -1163,16 +1170,16 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
@@ -1246,11 +1253,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -1311,10 +1318,10 @@
       <c r="A56" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1322,22 +1329,22 @@
       <c r="A57" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
@@ -1362,16 +1369,16 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
     </row>
     <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
@@ -1421,10 +1428,10 @@
       <c r="A68" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1432,22 +1439,22 @@
       <c r="A69" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
@@ -1493,4 +1500,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Schedulator/Programs.xlsx
+++ b/Schedulator/Programs.xlsx
@@ -777,7 +777,7 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Schedulator/Programs.xlsx
+++ b/Schedulator/Programs.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harley\Desktop\Schedulator\Schedulator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="SOEN COMP GAMES SEPT" sheetId="1" r:id="rId1"/>
-    <sheet name="SOEN COMP GAMES JAN" sheetId="2" r:id="rId2"/>
+    <sheet name="Computer Games September" sheetId="1" r:id="rId1"/>
+    <sheet name="Computer Games January" sheetId="2" r:id="rId2"/>
+    <sheet name="Computer Games Coop" sheetId="3" r:id="rId3"/>
+    <sheet name="Real-time EAS September" sheetId="4" r:id="rId4"/>
+    <sheet name="Real-time EAS January" sheetId="5" r:id="rId5"/>
+    <sheet name="Real-time EAS Coop" sheetId="6" r:id="rId6"/>
+    <sheet name="Web Services &amp; Applications Sep" sheetId="7" r:id="rId7"/>
+    <sheet name="Web Services &amp; Applications Jan" sheetId="8" r:id="rId8"/>
+    <sheet name="Web Services &amp; Applications Coo" sheetId="9" r:id="rId9"/>
+    <sheet name="General Program September" sheetId="10" r:id="rId10"/>
+    <sheet name="General Program January" sheetId="11" r:id="rId11"/>
+    <sheet name="General Program Coop" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_SECOND_FORMAT" hidden="1">" "</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="148">
   <si>
     <t>Year 1</t>
   </si>
@@ -319,14 +320,167 @@
     <t>COMP 476 or</t>
   </si>
   <si>
-    <t>Septemeber</t>
+    <t>September</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>ber</t>
+  </si>
+  <si>
+    <t>Year 1 – Summer</t>
+  </si>
+  <si>
+    <t>Year 2 – Fall</t>
+  </si>
+  <si>
+    <t>Year 2 – Winter</t>
+  </si>
+  <si>
+    <t>Management, Measurement and Quality Control</t>
+  </si>
+  <si>
+    <t>Year 3 – Fall</t>
+  </si>
+  <si>
+    <t>Year 3 – Winter</t>
+  </si>
+  <si>
+    <t>Year 4 – Fall</t>
+  </si>
+  <si>
+    <t>Year 4 – Winter</t>
+  </si>
+  <si>
+    <t>Coop</t>
+  </si>
+  <si>
+    <t>Year 1 – Fall</t>
+  </si>
+  <si>
+    <t>Year 1 – Winter</t>
+  </si>
+  <si>
+    <t>Work Term I</t>
+  </si>
+  <si>
+    <t>Co-op Work Term </t>
+  </si>
+  <si>
+    <t>Year 2 – Summer</t>
+  </si>
+  <si>
+    <t>Work Term II</t>
+  </si>
+  <si>
+    <t>Year 3 – Summer</t>
+  </si>
+  <si>
+    <t>Work Term III</t>
+  </si>
+  <si>
+    <t>Co-op Work Term</t>
+  </si>
+  <si>
+    <t>Real-time Embedded and Aviaonics Software</t>
+  </si>
+  <si>
+    <t>SOEN 422</t>
+  </si>
+  <si>
+    <t>Embedded Systems and Software</t>
+  </si>
+  <si>
+    <t>COMP 444 or</t>
+  </si>
+  <si>
+    <t>COMP 444 (alternative)</t>
+  </si>
+  <si>
+    <t>System Software Design</t>
+  </si>
+  <si>
+    <t>SOEN 423</t>
+  </si>
+  <si>
+    <t>Distributed Systems</t>
+  </si>
+  <si>
+    <t>COEN 320 or Elective</t>
+  </si>
+  <si>
+    <t>Introduction to Real‑Time Systems</t>
+  </si>
+  <si>
+    <t>AERO 480 or AERO 482</t>
+  </si>
+  <si>
+    <t>Flight Control Systems or Avionic Navigation Systems</t>
+  </si>
+  <si>
+    <t>3.5 or    3</t>
+  </si>
+  <si>
+    <t>MECH 480 or MECH 482</t>
+  </si>
+  <si>
+    <t>MECH 480 or</t>
+  </si>
+  <si>
+    <t>MECH 482</t>
+  </si>
+  <si>
+    <t>COMP 345 or COMP 444 or Elective</t>
+  </si>
+  <si>
+    <t>Web Services &amp; Applications</t>
+  </si>
+  <si>
+    <t>General elective</t>
+  </si>
+  <si>
+    <t>COMP 353</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>SOEN 387</t>
+  </si>
+  <si>
+    <t>Web‑Based Enterprise Application Design</t>
+  </si>
+  <si>
+    <t>COMP 479 or Elective</t>
+  </si>
+  <si>
+    <t>Information Retrieval and Web Search</t>
+  </si>
+  <si>
+    <t>SOEN 487 or Elective</t>
+  </si>
+  <si>
+    <t>Web Services and Applications</t>
+  </si>
+  <si>
+    <t>COMP 445 or Elective</t>
+  </si>
+  <si>
+    <t>Data Communication and Computer Networks</t>
+  </si>
+  <si>
+    <t>General Program</t>
+  </si>
+  <si>
+    <t>Technical Elective</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +505,26 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -422,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -466,6 +640,82 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,9 +753,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -554,7 +801,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,7 +836,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -766,7 +1013,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -776,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +1061,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -825,7 +1072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -836,7 +1083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -847,7 +1094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -858,7 +1105,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -869,7 +1116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -888,7 +1135,7 @@
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -899,7 +1146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -910,7 +1157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -921,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -932,7 +1179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -943,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -962,7 +1209,7 @@
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
     </row>
-    <row r="20" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -1498,18 +1745,7646 @@
     <mergeCell ref="C56:C59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="17">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="17">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="19"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="17">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="17">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="19"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+    </row>
+    <row r="70" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="17">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+    </row>
+    <row r="82" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="18">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="17">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="17">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="17">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="17">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="19"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="18">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="19">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="17">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="17">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="17">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="17">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="19"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="17">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="17">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Schedulator/Programs.xlsx
+++ b/Schedulator/Programs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harley\Desktop\Schedulator\Schedulator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Computer Games September" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="143">
   <si>
     <t>Year 1</t>
   </si>
@@ -259,18 +264,9 @@
     <t>Animation for Computer Games</t>
   </si>
   <si>
-    <t>COMP 345 (alternative)</t>
-  </si>
-  <si>
     <t>Advanced Program Design with C++</t>
   </si>
   <si>
-    <t>COMP 472 (alternative)</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
     <t>SOEN 385</t>
   </si>
   <si>
@@ -389,12 +385,6 @@
   </si>
   <si>
     <t>COMP 444 or</t>
-  </si>
-  <si>
-    <t>COMP 444 (alternative)</t>
-  </si>
-  <si>
-    <t>System Software Design</t>
   </si>
   <si>
     <t>SOEN 423</t>
@@ -478,8 +468,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,6 +675,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -705,12 +701,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -752,6 +742,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1012,21 +1005,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -1034,33 +1027,33 @@
     <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:4" ht="24.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1071,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1" thickBot="1">
+    <row r="5" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1082,7 +1075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1093,7 +1086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" thickBot="1">
+    <row r="7" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1097,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1115,26 +1108,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1145,7 +1138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1156,7 +1149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -1167,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1178,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1189,26 +1182,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -1219,7 +1212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1230,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
@@ -1241,7 +1234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1252,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24.75" thickBot="1">
+    <row r="24" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -1263,26 +1256,26 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1293,7 +1286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -1304,7 +1297,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -1315,7 +1308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24.75" thickBot="1">
+    <row r="31" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
@@ -1326,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1337,19 +1330,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="24.75" thickBot="1">
+    <row r="36" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
@@ -1371,7 +1364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24.75" thickBot="1">
+    <row r="37" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
@@ -1382,7 +1375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -1393,7 +1386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24.75" thickBot="1">
+    <row r="39" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>48</v>
       </c>
@@ -1404,7 +1397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>50</v>
       </c>
@@ -1415,19 +1408,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>1</v>
       </c>
@@ -1438,7 +1431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -1449,7 +1442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="24.75" thickBot="1">
+    <row r="45" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>54</v>
       </c>
@@ -1460,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>56</v>
       </c>
@@ -1471,7 +1464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="24.75" thickBot="1">
+    <row r="47" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>58</v>
       </c>
@@ -1482,7 +1475,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>60</v>
       </c>
@@ -1493,19 +1486,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>1</v>
       </c>
@@ -1516,7 +1509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24.75" thickBot="1">
+    <row r="52" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>63</v>
       </c>
@@ -1527,7 +1520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="24.75" thickBot="1">
+    <row r="53" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
@@ -1538,7 +1531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>67</v>
       </c>
@@ -1549,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>69</v>
       </c>
@@ -1560,7 +1553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>71</v>
       </c>
@@ -1571,171 +1564,127 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A60" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="4" t="s">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A61" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C63" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="3">
+      <c r="B64" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A63" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A65" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A66" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A67" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="3">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="5" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="5" t="s">
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A71" s="9" t="s">
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A72" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A73" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="4">
-        <v>4</v>
-      </c>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
@@ -1749,47 +1698,47 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -1800,7 +1749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1811,7 +1760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -1822,7 +1771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -1833,7 +1782,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -1844,26 +1793,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
@@ -1874,7 +1823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
@@ -1885,7 +1834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
@@ -1896,7 +1845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
@@ -1907,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
@@ -1918,26 +1867,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
@@ -1948,7 +1897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>23</v>
       </c>
@@ -1959,7 +1908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -1970,7 +1919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1981,7 +1930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24.75" thickBot="1">
+    <row r="24" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>29</v>
       </c>
@@ -1992,26 +1941,26 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
@@ -2022,7 +1971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>31</v>
       </c>
@@ -2033,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>33</v>
       </c>
@@ -2044,7 +1993,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>35</v>
       </c>
@@ -2055,7 +2004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="24.75" thickBot="1">
+    <row r="32" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>37</v>
       </c>
@@ -2066,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>39</v>
       </c>
@@ -2077,19 +2026,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>1</v>
       </c>
@@ -2100,7 +2049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>42</v>
       </c>
@@ -2111,7 +2060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
@@ -2122,7 +2071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>46</v>
       </c>
@@ -2133,7 +2082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24.75" thickBot="1">
+    <row r="40" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>48</v>
       </c>
@@ -2144,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>50</v>
       </c>
@@ -2155,19 +2104,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>1</v>
       </c>
@@ -2178,7 +2127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>52</v>
       </c>
@@ -2189,7 +2138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="24.75" thickBot="1">
+    <row r="46" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>54</v>
       </c>
@@ -2200,7 +2149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>56</v>
       </c>
@@ -2211,7 +2160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>58</v>
       </c>
@@ -2222,31 +2171,31 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1">
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>1</v>
       </c>
@@ -2257,7 +2206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="24.75" thickBot="1">
+    <row r="54" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>63</v>
       </c>
@@ -2268,7 +2217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="24.75" thickBot="1">
+    <row r="55" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>65</v>
       </c>
@@ -2279,7 +2228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>67</v>
       </c>
@@ -2290,33 +2239,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="30"/>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1">
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>1</v>
       </c>
@@ -2327,29 +2276,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1">
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A63" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="C63" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="24.75" thickBot="1">
+    <row r="64" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>63</v>
       </c>
@@ -2360,14 +2309,14 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1">
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>74</v>
       </c>
@@ -2394,47 +2343,47 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D1">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -2445,7 +2394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24.75" thickBot="1">
+    <row r="5" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -2456,7 +2405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -2467,7 +2416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24.75" thickBot="1">
+    <row r="7" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -2478,7 +2427,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24.75" thickBot="1">
+    <row r="8" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -2489,7 +2438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -2500,19 +2449,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
@@ -2523,7 +2472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
@@ -2534,7 +2483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="24.75" thickBot="1">
+    <row r="14" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>29</v>
       </c>
@@ -2545,7 +2494,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
@@ -2556,7 +2505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
@@ -2567,26 +2516,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
@@ -2597,7 +2546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.75" thickBot="1">
+    <row r="21" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>23</v>
       </c>
@@ -2608,7 +2557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -2619,7 +2568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24.75" thickBot="1">
+    <row r="23" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>33</v>
       </c>
@@ -2630,7 +2579,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24.75" thickBot="1">
+    <row r="24" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
@@ -2641,26 +2590,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
@@ -2671,7 +2620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>31</v>
       </c>
@@ -2682,7 +2631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="24.75" thickBot="1">
+    <row r="30" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>35</v>
       </c>
@@ -2693,7 +2642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24.75" thickBot="1">
+    <row r="31" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>37</v>
       </c>
@@ -2704,7 +2653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>39</v>
       </c>
@@ -2715,26 +2664,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>1</v>
       </c>
@@ -2745,7 +2694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24.75" thickBot="1">
+    <row r="37" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>42</v>
       </c>
@@ -2756,7 +2705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24.75" thickBot="1">
+    <row r="38" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
@@ -2767,7 +2716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24.75" thickBot="1">
+    <row r="39" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>46</v>
       </c>
@@ -2778,18 +2727,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24.75" thickBot="1">
+    <row r="40" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C40" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="24.75" thickBot="1">
+    <row r="41" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>50</v>
       </c>
@@ -2800,19 +2749,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>1</v>
       </c>
@@ -2823,7 +2772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="24.75" thickBot="1">
+    <row r="45" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>52</v>
       </c>
@@ -2834,7 +2783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="24.75" thickBot="1">
+    <row r="46" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>54</v>
       </c>
@@ -2845,7 +2794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>56</v>
       </c>
@@ -2856,7 +2805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24.75" thickBot="1">
+    <row r="48" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>58</v>
       </c>
@@ -2867,26 +2816,26 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1">
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>1</v>
       </c>
@@ -2897,7 +2846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="24.75" thickBot="1">
+    <row r="53" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>63</v>
       </c>
@@ -2908,7 +2857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="24.75" thickBot="1">
+    <row r="54" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>65</v>
       </c>
@@ -2919,7 +2868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>67</v>
       </c>
@@ -2930,33 +2879,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="30"/>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>1</v>
       </c>
@@ -2967,29 +2916,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1">
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A62" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="C62" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="24.75" thickBot="1">
+    <row r="63" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>63</v>
       </c>
@@ -3000,14 +2949,14 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1">
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
     </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>74</v>
       </c>
@@ -3034,14 +2983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
@@ -3049,33 +2998,33 @@
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D1">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -3086,7 +3035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -3097,7 +3046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -3108,7 +3057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -3119,7 +3068,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24.75" thickBot="1">
+    <row r="8" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -3130,26 +3079,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
@@ -3160,7 +3109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
@@ -3171,7 +3120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
@@ -3182,7 +3131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
@@ -3193,7 +3142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
@@ -3204,26 +3153,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
@@ -3234,7 +3183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.75" thickBot="1">
+    <row r="21" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>23</v>
       </c>
@@ -3245,7 +3194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -3256,7 +3205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -3267,7 +3216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24.75" thickBot="1">
+    <row r="24" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>29</v>
       </c>
@@ -3278,26 +3227,26 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
@@ -3308,28 +3257,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C29" s="12"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
@@ -3340,7 +3289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>33</v>
       </c>
@@ -3351,7 +3300,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24.75" thickBot="1">
+    <row r="34" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>35</v>
       </c>
@@ -3362,7 +3311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="24.75" thickBot="1">
+    <row r="35" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>37</v>
       </c>
@@ -3373,7 +3322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>39</v>
       </c>
@@ -3384,19 +3333,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A38" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>1</v>
       </c>
@@ -3407,28 +3356,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>1</v>
       </c>
@@ -3439,7 +3388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24.75" thickBot="1">
+    <row r="44" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>42</v>
       </c>
@@ -3450,7 +3399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="24.75" thickBot="1">
+    <row r="45" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>44</v>
       </c>
@@ -3461,7 +3410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>46</v>
       </c>
@@ -3472,7 +3421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="24.75" thickBot="1">
+    <row r="47" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>48</v>
       </c>
@@ -3483,7 +3432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>50</v>
       </c>
@@ -3494,19 +3443,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>1</v>
       </c>
@@ -3517,7 +3466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1">
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>52</v>
       </c>
@@ -3528,7 +3477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="24.75" thickBot="1">
+    <row r="53" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>54</v>
       </c>
@@ -3539,7 +3488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>56</v>
       </c>
@@ -3550,7 +3499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="24.75" thickBot="1">
+    <row r="55" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>58</v>
       </c>
@@ -3561,47 +3510,47 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C59" s="14"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1">
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1">
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>1</v>
       </c>
@@ -3612,7 +3561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="24.75" thickBot="1">
+    <row r="63" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>63</v>
       </c>
@@ -3623,7 +3572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="24.75" thickBot="1">
+    <row r="64" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>65</v>
       </c>
@@ -3634,7 +3583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>67</v>
       </c>
@@ -3645,33 +3594,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1">
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
     </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1">
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
     </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1">
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="30"/>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
     </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1">
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
     </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1">
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>1</v>
       </c>
@@ -3682,7 +3631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="24.75" thickBot="1">
+    <row r="71" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>65</v>
       </c>
@@ -3693,18 +3642,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1">
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C72" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="24.75" thickBot="1">
+    <row r="73" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>63</v>
       </c>
@@ -3715,14 +3664,14 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1">
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
     </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1">
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>74</v>
       </c>
@@ -3731,12 +3680,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
@@ -3749,20 +3692,26 @@
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
@@ -3770,35 +3719,35 @@
     <col min="4" max="4" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D1">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>2</v>
@@ -3807,7 +3756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24.75" thickBot="1">
+    <row r="5" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -3818,7 +3767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24.75" thickBot="1">
+    <row r="6" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -3829,7 +3778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24.75" thickBot="1">
+    <row r="7" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -3840,7 +3789,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24.75" thickBot="1">
+    <row r="8" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -3851,7 +3800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -3862,19 +3811,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
@@ -3885,7 +3834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="24.75" thickBot="1">
+    <row r="13" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
@@ -3896,7 +3845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="36.75" thickBot="1">
+    <row r="14" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>29</v>
       </c>
@@ -3907,7 +3856,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
@@ -3918,7 +3867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="24.75" thickBot="1">
+    <row r="16" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
@@ -3929,26 +3878,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
@@ -3959,7 +3908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.75" thickBot="1">
+    <row r="21" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>23</v>
       </c>
@@ -3970,7 +3919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24.75" thickBot="1">
+    <row r="22" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -3981,7 +3930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24.75" thickBot="1">
+    <row r="23" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>33</v>
       </c>
@@ -3992,7 +3941,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24.75" thickBot="1">
+    <row r="24" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
@@ -4003,26 +3952,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
@@ -4033,7 +3982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>31</v>
       </c>
@@ -4044,7 +3993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="24.75" thickBot="1">
+    <row r="30" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>35</v>
       </c>
@@ -4055,7 +4004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="36.75" thickBot="1">
+    <row r="31" spans="1:3" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>37</v>
       </c>
@@ -4066,7 +4015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>39</v>
       </c>
@@ -4077,28 +4026,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>1</v>
       </c>
@@ -4109,7 +4058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24.75" thickBot="1">
+    <row r="37" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>42</v>
       </c>
@@ -4120,7 +4069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24.75" thickBot="1">
+    <row r="38" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
@@ -4131,7 +4080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24.75" thickBot="1">
+    <row r="39" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>46</v>
       </c>
@@ -4142,18 +4091,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24.75" thickBot="1">
+    <row r="40" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C40" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="24.75" thickBot="1">
+    <row r="41" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>50</v>
       </c>
@@ -4164,19 +4113,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>1</v>
       </c>
@@ -4187,7 +4136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="24.75" thickBot="1">
+    <row r="45" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>52</v>
       </c>
@@ -4198,7 +4147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="36.75" thickBot="1">
+    <row r="46" spans="1:3" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>54</v>
       </c>
@@ -4209,7 +4158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>56</v>
       </c>
@@ -4220,7 +4169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24.75" thickBot="1">
+    <row r="48" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>58</v>
       </c>
@@ -4231,28 +4180,28 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1">
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>1</v>
       </c>
@@ -4263,7 +4212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="24.75" thickBot="1">
+    <row r="53" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>63</v>
       </c>
@@ -4274,7 +4223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="24.75" thickBot="1">
+    <row r="54" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>65</v>
       </c>
@@ -4285,7 +4234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="24.75" thickBot="1">
+    <row r="55" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>67</v>
       </c>
@@ -4296,33 +4245,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="30"/>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>1</v>
       </c>
@@ -4333,29 +4282,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1">
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A62" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="C62" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="24.75" thickBot="1">
+    <row r="63" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>63</v>
       </c>
@@ -4366,14 +4315,14 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1">
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
     </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>74</v>
       </c>
@@ -4401,14 +4350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.140625" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
@@ -4416,33 +4365,33 @@
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D1">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -4453,7 +4402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24.75" thickBot="1">
+    <row r="5" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -4464,7 +4413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -4475,7 +4424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24.75" thickBot="1">
+    <row r="7" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -4486,7 +4435,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24.75" thickBot="1">
+    <row r="8" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -4497,26 +4446,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
@@ -4527,7 +4476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
@@ -4538,7 +4487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
@@ -4549,7 +4498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
@@ -4560,7 +4509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
@@ -4571,26 +4520,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
@@ -4601,7 +4550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.75" thickBot="1">
+    <row r="21" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>23</v>
       </c>
@@ -4612,7 +4561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -4623,7 +4572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24.75" thickBot="1">
+    <row r="23" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -4634,7 +4583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24.75" thickBot="1">
+    <row r="24" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>29</v>
       </c>
@@ -4645,28 +4594,28 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
@@ -4677,28 +4626,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C29" s="12"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
@@ -4709,7 +4658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24.75" thickBot="1">
+    <row r="33" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>33</v>
       </c>
@@ -4720,7 +4669,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24.75" thickBot="1">
+    <row r="34" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>35</v>
       </c>
@@ -4731,7 +4680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="24.75" thickBot="1">
+    <row r="35" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>37</v>
       </c>
@@ -4742,7 +4691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>39</v>
       </c>
@@ -4753,19 +4702,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A38" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>1</v>
       </c>
@@ -4776,23 +4725,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>1</v>
       </c>
@@ -4803,7 +4752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24.75" thickBot="1">
+    <row r="43" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>42</v>
       </c>
@@ -4814,7 +4763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24.75" thickBot="1">
+    <row r="44" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>44</v>
       </c>
@@ -4825,7 +4774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>46</v>
       </c>
@@ -4836,7 +4785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="24.75" thickBot="1">
+    <row r="46" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>48</v>
       </c>
@@ -4847,7 +4796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="24.75" thickBot="1">
+    <row r="47" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>50</v>
       </c>
@@ -4858,21 +4807,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>1</v>
       </c>
@@ -4883,7 +4832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="24.75" thickBot="1">
+    <row r="51" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>52</v>
       </c>
@@ -4894,7 +4843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24.75" thickBot="1">
+    <row r="52" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>54</v>
       </c>
@@ -4905,7 +4854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>56</v>
       </c>
@@ -4916,7 +4865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="24.75" thickBot="1">
+    <row r="54" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>58</v>
       </c>
@@ -4927,7 +4876,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>60</v>
       </c>
@@ -4938,42 +4887,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C58" s="14"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1">
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>1</v>
       </c>
@@ -4984,7 +4933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="24.75" thickBot="1">
+    <row r="62" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>63</v>
       </c>
@@ -4995,7 +4944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="24.75" thickBot="1">
+    <row r="63" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>65</v>
       </c>
@@ -5006,7 +4955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1">
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>67</v>
       </c>
@@ -5017,7 +4966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="24.75" thickBot="1">
+    <row r="65" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>69</v>
       </c>
@@ -5028,207 +4977,163 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="35">
+      <c r="C66" s="37">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-    </row>
-    <row r="70" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A70" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A71" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="12" t="s">
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="12">
+      <c r="B74" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="12">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="33">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A73" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A74" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A75" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A76" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A77" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" s="12">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="17" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="17" t="s">
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A81" s="22" t="s">
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-    </row>
-    <row r="82" spans="1:3" ht="24.75" thickBot="1">
-      <c r="A82" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A83" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" s="13">
-        <v>4</v>
-      </c>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
@@ -5236,33 +5141,33 @@
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -5273,7 +5178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -5284,7 +5189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -5295,7 +5200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -5306,7 +5211,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -5317,26 +5222,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
@@ -5347,7 +5252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
@@ -5359,7 +5264,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
@@ -5370,7 +5275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
@@ -5381,7 +5286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
@@ -5392,28 +5297,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
@@ -5424,7 +5329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>23</v>
       </c>
@@ -5435,7 +5340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -5446,7 +5351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -5457,7 +5362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24.75" thickBot="1">
+    <row r="24" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>29</v>
       </c>
@@ -5468,26 +5373,26 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
@@ -5498,7 +5403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>33</v>
       </c>
@@ -5509,7 +5414,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>35</v>
       </c>
@@ -5520,7 +5425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24.75" thickBot="1">
+    <row r="31" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>37</v>
       </c>
@@ -5531,7 +5436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>39</v>
       </c>
@@ -5542,21 +5447,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -5567,7 +5472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>42</v>
       </c>
@@ -5578,7 +5483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>44</v>
       </c>
@@ -5589,7 +5494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>46</v>
       </c>
@@ -5600,7 +5505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>48</v>
       </c>
@@ -5611,30 +5516,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C40" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>1</v>
       </c>
@@ -5645,7 +5550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>52</v>
       </c>
@@ -5656,7 +5561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>54</v>
       </c>
@@ -5667,7 +5572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>56</v>
       </c>
@@ -5678,7 +5583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>58</v>
       </c>
@@ -5689,263 +5594,252 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="B48" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+        <v>116</v>
+      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A51" s="13" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="C57" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A53" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A54" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A55" s="12" t="s">
+      <c r="B58" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B64" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A56" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A57" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A58" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A59" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A61" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A62" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A63" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A64" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A65" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="12">
+      <c r="C64" s="12">
         <v>-4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A66" s="13" t="s">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B65" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A67" s="12" t="s">
+      <c r="C65" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B66" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C66" s="12">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A52:C52"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="A53:C53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="56.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D1">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -5956,7 +5850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -5967,7 +5861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -5978,7 +5872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -5989,7 +5883,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -6000,7 +5894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -6011,19 +5905,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
@@ -6034,7 +5928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
@@ -6045,7 +5939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>29</v>
       </c>
@@ -6056,7 +5950,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
@@ -6067,7 +5961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
@@ -6078,28 +5972,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
@@ -6110,7 +6004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>23</v>
       </c>
@@ -6121,7 +6015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -6132,7 +6026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>33</v>
       </c>
@@ -6143,7 +6037,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
@@ -6154,26 +6048,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
@@ -6184,7 +6078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
@@ -6195,7 +6089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>37</v>
       </c>
@@ -6206,7 +6100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>39</v>
       </c>
@@ -6217,28 +6111,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -6249,7 +6143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>42</v>
       </c>
@@ -6260,7 +6154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>44</v>
       </c>
@@ -6271,7 +6165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>46</v>
       </c>
@@ -6282,7 +6176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>48</v>
       </c>
@@ -6293,30 +6187,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C40" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>1</v>
       </c>
@@ -6327,7 +6221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>52</v>
       </c>
@@ -6338,7 +6232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>54</v>
       </c>
@@ -6349,7 +6243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>56</v>
       </c>
@@ -6360,7 +6254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>58</v>
       </c>
@@ -6371,230 +6265,219 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="B48" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+        <v>116</v>
+      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A51" s="13" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A53" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A54" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A55" s="12" t="s">
+      <c r="C57" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B64" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A56" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A57" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A58" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A59" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A61" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A62" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A63" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A64" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A65" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="12">
+      <c r="C64" s="12">
         <v>-4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A66" s="13" t="s">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B65" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A67" s="12" t="s">
+      <c r="C65" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B66" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C66" s="12">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A52:C52"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="A53:C53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="2" width="53.28515625" customWidth="1"/>
@@ -6602,33 +6485,33 @@
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D1">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -6639,7 +6522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6650,7 +6533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -6661,7 +6544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -6672,7 +6555,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -6683,26 +6566,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
@@ -6713,7 +6596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
@@ -6724,7 +6607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
@@ -6735,7 +6618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
@@ -6746,7 +6629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
@@ -6757,26 +6640,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
@@ -6787,7 +6670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>23</v>
       </c>
@@ -6798,7 +6681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -6809,7 +6692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -6820,7 +6703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>29</v>
       </c>
@@ -6831,28 +6714,28 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
@@ -6863,28 +6746,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C29" s="12"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
@@ -6895,7 +6778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>33</v>
       </c>
@@ -6906,7 +6789,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>35</v>
       </c>
@@ -6917,7 +6800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>37</v>
       </c>
@@ -6928,7 +6811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>39</v>
       </c>
@@ -6939,19 +6822,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A38" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>1</v>
       </c>
@@ -6962,28 +6845,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>1</v>
       </c>
@@ -6994,7 +6877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>42</v>
       </c>
@@ -7005,7 +6888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>44</v>
       </c>
@@ -7016,7 +6899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>46</v>
       </c>
@@ -7027,7 +6910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>48</v>
       </c>
@@ -7038,30 +6921,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C48" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>1</v>
       </c>
@@ -7072,7 +6955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1">
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>52</v>
       </c>
@@ -7083,7 +6966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>54</v>
       </c>
@@ -7094,7 +6977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>56</v>
       </c>
@@ -7105,7 +6988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>58</v>
       </c>
@@ -7116,51 +6999,51 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C56" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C59" s="14"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1">
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1">
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>1</v>
       </c>
@@ -7171,7 +7054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1">
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>63</v>
       </c>
@@ -7182,7 +7065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1">
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>67</v>
       </c>
@@ -7193,59 +7076,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C65" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1">
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B66" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B67" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1">
+        <v>126</v>
+      </c>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="30"/>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
     </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1">
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
     </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1">
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>1</v>
       </c>
@@ -7256,18 +7139,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1">
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C72" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1">
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
         <v>63</v>
       </c>
@@ -7278,7 +7161,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1">
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>65</v>
       </c>
@@ -7289,7 +7172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1">
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>50</v>
       </c>
@@ -7300,30 +7183,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1">
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" s="15">
         <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A77" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" s="14">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A10:C10"/>
@@ -7336,61 +7216,53 @@
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.28515625" customWidth="1"/>
     <col min="2" max="2" width="50.85546875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -7401,7 +7273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -7412,7 +7284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -7423,7 +7295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -7434,7 +7306,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -7445,26 +7317,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
@@ -7475,7 +7347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
@@ -7486,7 +7358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
@@ -7497,7 +7369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
@@ -7508,7 +7380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
@@ -7519,26 +7391,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
@@ -7549,7 +7421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>23</v>
       </c>
@@ -7560,7 +7432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -7571,7 +7443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -7582,7 +7454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>29</v>
       </c>
@@ -7593,26 +7465,26 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
@@ -7623,7 +7495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>33</v>
       </c>
@@ -7634,7 +7506,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>35</v>
       </c>
@@ -7645,7 +7517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>37</v>
       </c>
@@ -7656,7 +7528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>39</v>
       </c>
@@ -7667,19 +7539,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -7690,7 +7562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>42</v>
       </c>
@@ -7701,7 +7573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>44</v>
       </c>
@@ -7712,7 +7584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>46</v>
       </c>
@@ -7723,7 +7595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>48</v>
       </c>
@@ -7734,30 +7606,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C40" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>1</v>
       </c>
@@ -7768,7 +7640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>52</v>
       </c>
@@ -7779,7 +7651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>54</v>
       </c>
@@ -7790,7 +7662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>56</v>
       </c>
@@ -7801,7 +7673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>58</v>
       </c>
@@ -7812,7 +7684,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>50</v>
       </c>
@@ -7823,19 +7695,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>1</v>
       </c>
@@ -7846,7 +7718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1">
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>65</v>
       </c>
@@ -7857,7 +7729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>67</v>
       </c>
@@ -7868,7 +7740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>63</v>
       </c>
@@ -7879,41 +7751,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C55" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C56" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>1</v>
       </c>
@@ -7924,29 +7796,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A61" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="C61" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1">
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>63</v>
       </c>
@@ -7957,23 +7829,23 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1">
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C63" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1">
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C64" s="12">
         <v>4</v>
@@ -7999,14 +7871,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="41.5703125" customWidth="1"/>
@@ -8014,33 +7886,33 @@
     <col min="4" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D1">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -8051,7 +7923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -8062,7 +7934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -8073,7 +7945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -8084,7 +7956,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -8095,7 +7967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -8106,19 +7978,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
@@ -8129,7 +8001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
@@ -8140,7 +8012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="24.75" thickBot="1">
+    <row r="14" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>29</v>
       </c>
@@ -8151,7 +8023,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
@@ -8162,7 +8034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
@@ -8173,26 +8045,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
@@ -8203,7 +8075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>23</v>
       </c>
@@ -8214,7 +8086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -8225,7 +8097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>33</v>
       </c>
@@ -8236,7 +8108,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
@@ -8247,26 +8119,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
@@ -8277,7 +8149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
@@ -8288,7 +8160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="24.75" thickBot="1">
+    <row r="30" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>37</v>
       </c>
@@ -8299,7 +8171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>39</v>
       </c>
@@ -8310,26 +8182,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -8340,7 +8212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>42</v>
       </c>
@@ -8351,7 +8223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>44</v>
       </c>
@@ -8362,7 +8234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>46</v>
       </c>
@@ -8373,7 +8245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>48</v>
       </c>
@@ -8384,30 +8256,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C40" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>1</v>
       </c>
@@ -8418,7 +8290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>52</v>
       </c>
@@ -8429,7 +8301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="24.75" thickBot="1">
+    <row r="45" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>54</v>
       </c>
@@ -8440,7 +8312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>56</v>
       </c>
@@ -8451,7 +8323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>58</v>
       </c>
@@ -8462,7 +8334,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>50</v>
       </c>
@@ -8471,19 +8343,19 @@
       </c>
       <c r="C48" s="10"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>1</v>
       </c>
@@ -8494,7 +8366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24.75" thickBot="1">
+    <row r="52" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>65</v>
       </c>
@@ -8505,7 +8377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>67</v>
       </c>
@@ -8516,7 +8388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>63</v>
       </c>
@@ -8527,41 +8399,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C55" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C56" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>1</v>
       </c>
@@ -8572,29 +8444,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A61" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="C61" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1">
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>63</v>
       </c>
@@ -8605,23 +8477,23 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1">
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C63" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1">
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C64" s="12">
         <v>4</v>
@@ -8647,14 +8519,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" customWidth="1"/>
@@ -8662,33 +8534,33 @@
     <col min="4" max="4" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D1">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -8699,7 +8571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -8710,7 +8582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -8721,7 +8593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -8732,7 +8604,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -8743,26 +8615,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
@@ -8773,7 +8645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
@@ -8784,7 +8656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
@@ -8795,7 +8667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
@@ -8806,7 +8678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
@@ -8817,26 +8689,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
@@ -8847,7 +8719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>23</v>
       </c>
@@ -8858,7 +8730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -8869,7 +8741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -8880,7 +8752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="24.75" thickBot="1">
+    <row r="24" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>29</v>
       </c>
@@ -8891,26 +8763,26 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
@@ -8921,29 +8793,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1">
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C29" s="12"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
@@ -8954,7 +8826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>33</v>
       </c>
@@ -8965,7 +8837,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>35</v>
       </c>
@@ -8976,7 +8848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="24.75" thickBot="1">
+    <row r="35" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>37</v>
       </c>
@@ -8987,7 +8859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>39</v>
       </c>
@@ -8998,19 +8870,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>1</v>
       </c>
@@ -9021,28 +8893,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>1</v>
       </c>
@@ -9053,7 +8925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>42</v>
       </c>
@@ -9064,7 +8936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>44</v>
       </c>
@@ -9075,7 +8947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>46</v>
       </c>
@@ -9086,7 +8958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>48</v>
       </c>
@@ -9097,30 +8969,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C48" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>1</v>
       </c>
@@ -9131,7 +9003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1">
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>52</v>
       </c>
@@ -9142,7 +9014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="24.75" thickBot="1">
+    <row r="53" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>54</v>
       </c>
@@ -9153,7 +9025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>56</v>
       </c>
@@ -9164,7 +9036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>58</v>
       </c>
@@ -9175,7 +9047,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>50</v>
       </c>
@@ -9186,40 +9058,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C59" s="14"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1">
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1">
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>1</v>
       </c>
@@ -9230,7 +9102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1">
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>63</v>
       </c>
@@ -9241,7 +9113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="24.75" thickBot="1">
+    <row r="64" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>65</v>
       </c>
@@ -9252,7 +9124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1">
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>67</v>
       </c>
@@ -9263,41 +9135,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1">
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C66" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1">
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C67" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1">
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="30"/>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
     </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1">
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
     </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1">
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>1</v>
       </c>
@@ -9308,29 +9180,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1">
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A72" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="C72" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1">
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>63</v>
       </c>
@@ -9341,23 +9213,23 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1">
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C74" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1">
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C75" s="12">
         <v>4</v>
@@ -9365,12 +9237,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
@@ -9383,6 +9249,12 @@
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schedulator/Programs.xlsx
+++ b/Schedulator/Programs.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="167">
   <si>
     <t>Year 1</t>
   </si>
@@ -483,9 +483,6 @@
   </si>
   <si>
     <t>Introduction to Game Development </t>
-  </si>
-  <si>
-    <t>COMP 393</t>
   </si>
   <si>
     <t>COMP 361</t>
@@ -1167,7 +1164,7 @@
         <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
         <v>97</v>
@@ -1313,7 +1310,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1">
@@ -1403,7 +1400,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1">
       <c r="A29" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -1498,7 +1495,7 @@
         <v>121</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C39" s="25">
         <v>3</v>
@@ -1703,7 +1700,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1">
@@ -1793,7 +1790,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="A29" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -1934,7 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D41" sqref="D41:D46"/>
     </sheetView>
   </sheetViews>
@@ -2027,7 +2024,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -2152,7 +2149,7 @@
     </row>
     <row r="23" spans="1:3" ht="24.75" thickBot="1">
       <c r="A23" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>143</v>
@@ -2366,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2744,7 +2741,7 @@
     </row>
     <row r="41" spans="1:3" ht="60.75" thickBot="1">
       <c r="A41" s="27" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>138</v>
@@ -2960,7 +2957,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1">
@@ -3046,7 +3043,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1">
       <c r="A29" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -3276,7 +3273,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -4177,7 +4174,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1">
@@ -4263,7 +4260,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1">
       <c r="A29" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -4489,7 +4486,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -5801,7 +5798,7 @@
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1">
       <c r="A60" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>76</v>
@@ -5900,10 +5897,10 @@
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1">
       <c r="A71" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="C71" s="4">
         <v>4</v>
@@ -5953,7 +5950,7 @@
         <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
         <v>94</v>
@@ -6030,7 +6027,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1">
       <c r="A10" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -6264,7 +6261,7 @@
         <v>121</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="25">
         <v>3</v>
@@ -6469,7 +6466,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="A11" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
@@ -7185,7 +7182,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1">
       <c r="A19" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -7360,7 +7357,7 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1">
       <c r="A38" s="53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="53"/>
       <c r="C38" s="53"/>
@@ -7545,7 +7542,7 @@
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1">
       <c r="A57" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
@@ -7662,7 +7659,7 @@
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1">
       <c r="A70" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>76</v>
@@ -7761,10 +7758,10 @@
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1">
       <c r="A81" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="C81" s="4">
         <v>4</v>
@@ -8585,7 +8582,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="A11" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
@@ -9327,7 +9324,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1">
       <c r="A19" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -9502,7 +9499,7 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1">
       <c r="A38" s="53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="53"/>
       <c r="C38" s="53"/>
@@ -9690,7 +9687,7 @@
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1">
       <c r="A58" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
@@ -10658,7 +10655,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="A11" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
@@ -11376,7 +11373,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1">
       <c r="A19" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -11550,7 +11547,7 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1">
       <c r="A38" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
@@ -11738,7 +11735,7 @@
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1">
       <c r="A58" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
@@ -12692,7 +12689,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="A11" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
@@ -13238,7 +13235,7 @@
         <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
         <v>93</v>
@@ -13549,7 +13546,7 @@
         <v>121</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="25">
         <v>3</v>
@@ -13824,7 +13821,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1">
       <c r="A19" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -13997,7 +13994,7 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1">
       <c r="A38" s="53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="53"/>
       <c r="C38" s="53"/>
@@ -14181,7 +14178,7 @@
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1">
       <c r="A58" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
@@ -14380,7 +14377,7 @@
         <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
         <v>97</v>
@@ -14526,7 +14523,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1">
@@ -14581,7 +14578,7 @@
     </row>
     <row r="24" spans="1:3" ht="24.75" thickBot="1">
       <c r="A24" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>143</v>
@@ -14616,7 +14613,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1">
       <c r="A29" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -14704,10 +14701,10 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1">
       <c r="A39" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>147</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>148</v>
       </c>
       <c r="C39" s="27">
         <v>3</v>
@@ -14726,10 +14723,10 @@
     </row>
     <row r="41" spans="1:3" ht="24.75" thickBot="1">
       <c r="A41" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>156</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>157</v>
       </c>
       <c r="C41" s="27">
         <v>3</v>
@@ -14748,7 +14745,7 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1">
       <c r="A43" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
@@ -14839,7 +14836,7 @@
         <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
         <v>94</v>
@@ -14916,7 +14913,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1">
       <c r="A10" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -15030,7 +15027,7 @@
     </row>
     <row r="22" spans="1:3" ht="24.75" thickBot="1">
       <c r="A22" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>143</v>
@@ -15154,10 +15151,10 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1">
       <c r="A36" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>148</v>
       </c>
       <c r="C36" s="25">
         <v>3</v>
@@ -15165,10 +15162,10 @@
     </row>
     <row r="37" spans="1:3" ht="24.75" thickBot="1">
       <c r="A37" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>156</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>157</v>
       </c>
       <c r="C37" s="27">
         <v>3</v>
@@ -15208,7 +15205,7 @@
     </row>
     <row r="42" spans="1:3" ht="36.75" thickBot="1">
       <c r="A42" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>128</v>
@@ -15275,7 +15272,7 @@
         <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
         <v>93</v>
@@ -15466,7 +15463,7 @@
     </row>
     <row r="22" spans="1:3" ht="24.75" thickBot="1">
       <c r="A22" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>143</v>
@@ -15477,10 +15474,10 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1">
       <c r="A23" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>154</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>155</v>
       </c>
       <c r="C23" s="25">
         <v>3</v>
@@ -15594,10 +15591,10 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1">
       <c r="A36" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>148</v>
       </c>
       <c r="C36" s="25">
         <v>3</v>
@@ -15605,10 +15602,10 @@
     </row>
     <row r="37" spans="1:3" ht="24.75" thickBot="1">
       <c r="A37" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>156</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>157</v>
       </c>
       <c r="C37" s="27">
         <v>3</v>
@@ -15659,7 +15656,7 @@
     </row>
     <row r="43" spans="1:3" ht="24.75" thickBot="1">
       <c r="A43" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>128</v>
@@ -15715,7 +15712,7 @@
         <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
         <v>97</v>
@@ -15861,7 +15858,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1">
@@ -15951,7 +15948,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="A29" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -16035,10 +16032,10 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1">
       <c r="A39" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>147</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>148</v>
       </c>
       <c r="C39" s="27">
         <v>3</v>
@@ -16068,10 +16065,10 @@
     </row>
     <row r="42" spans="1:3" ht="24">
       <c r="A42" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" s="36">
         <v>4</v>
@@ -16079,10 +16076,10 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1">
       <c r="A43" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43" s="37"/>
     </row>
@@ -16105,7 +16102,7 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1">
       <c r="A47" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
@@ -16194,7 +16191,7 @@
         <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
         <v>94</v>
@@ -16271,7 +16268,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -16516,10 +16513,10 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1">
       <c r="A37" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>147</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>148</v>
       </c>
       <c r="C37" s="27">
         <v>3</v>
@@ -16622,7 +16619,7 @@
         <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
         <v>93</v>
@@ -16933,10 +16930,10 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1">
       <c r="A36" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>148</v>
       </c>
       <c r="C36" s="25">
         <v>3</v>
